--- a/SASPACer/addcnt/template_package.xlsx
+++ b/SASPACer/addcnt/template_package.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mytakeda-my.sharepoint.com/personal/ryou_nakaya_takeda_com/Documents/仲家/SAS/SASPACer/SASPACer/addcnt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="245" documentId="11_F25DC773A252ABDACC104856C95E563E5ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FF3A541-5333-4330-8091-9D16FCD898BB}"/>
+  <xr:revisionPtr revIDLastSave="248" documentId="11_F25DC773A252ABDACC104856C95E563E5ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3C921ED-DDFB-4996-96EE-92784006ED5E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="863" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="3140" windowWidth="14400" windowHeight="8260" tabRatio="863" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="1" r:id="rId1"/>
@@ -1434,16 +1434,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2407937D-6862-4C42-A8B5-594F375883D2}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="40.9140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="36.9140625" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.9140625" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1536,7 +1537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F138A73F-DE48-4877-AA04-F53F95AC3500}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>

--- a/SASPACer/addcnt/template_package.xlsx
+++ b/SASPACer/addcnt/template_package.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mytakeda-my.sharepoint.com/personal/ryou_nakaya_takeda_com/Documents/仲家/SAS/SASPACer/SASPACer/addcnt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="248" documentId="11_F25DC773A252ABDACC104856C95E563E5ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3C921ED-DDFB-4996-96EE-92784006ED5E}"/>
+  <xr:revisionPtr revIDLastSave="249" documentId="11_F25DC773A252ABDACC104856C95E563E5ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{787FCC35-ADAD-447E-B4C1-1E7455BEF727}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="3140" windowWidth="14400" windowHeight="8260" tabRatio="863" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="863" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="1" r:id="rId1"/>
@@ -177,25 +177,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">	Copyright (c) [YEAR] [Owner Name]
-  Permission is hereby granted, free of charge, to any person obtaining a copy  
-  of this software and associated documentation files (the "Software"), to deal 
-  in the Software without restriction, including without limitation the rights  
-  to use, copy, modify, merge, publish, distribute, sublicense, and/or sell     
-  copies of the Software, and to permit persons to whom the Software is         
-  furnished to do so, subject to the following conditions:                      
-  The above copyright notice and this permission notice shall be included       
-  in all copies or substantial portions of the Software.                        
-  THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR    
-  IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY,      
-  FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE   
-  AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER        
-  LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, 
-  OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE 
-  SOFTWARE. </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>help</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -399,6 +380,25 @@
   <si>
     <t>F1 is an user-defined function to output +1 value. 
 options cmplib=work.f ; is required prior to f1 is used.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	Copyright (c) [YEAR] [Owner Name]
+Permission is hereby granted, free of charge, to any person obtaining a copy  
+of this software and associated documentation files (the "Software"), to deal 
+in the Software without restriction, including without limitation the rights  
+to use, copy, modify, merge, publish, distribute, sublicense, and/or sell     
+copies of the Software, and to permit persons to whom the Software is         
+furnished to do so, subject to the following conditions:                      
+The above copyright notice and this permission notice shall be included       
+in all copies or substantial portions of the Software.                        
+THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR    
+IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY,      
+FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE   
+AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER        
+LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, 
+OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE 
+SOFTWARE. </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -809,7 +809,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -870,10 +870,10 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="198">
@@ -881,7 +881,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -895,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA4723A-BC3E-47B2-B1DD-0A431AEFC984}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -909,7 +909,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -936,40 +936,40 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="342">
       <c r="A2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1038,40 +1038,40 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="54">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1141,40 +1141,40 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="72">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1244,40 +1244,40 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="36">
       <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1346,40 +1346,40 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="54">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1434,7 +1434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2407937D-6862-4C42-A8B5-594F375883D2}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
@@ -1449,40 +1449,40 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="90">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1551,40 +1551,40 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/SASPACer/addcnt/template_package.xlsx
+++ b/SASPACer/addcnt/template_package.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mytakeda-my.sharepoint.com/personal/ryou_nakaya_takeda_com/Documents/仲家/SAS/SASPACer/SASPACer/addcnt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="249" documentId="11_F25DC773A252ABDACC104856C95E563E5ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{787FCC35-ADAD-447E-B4C1-1E7455BEF727}"/>
+  <xr:revisionPtr revIDLastSave="250" documentId="11_F25DC773A252ABDACC104856C95E563E5ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A3940A5-157D-46F5-8325-873979361FF3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="863" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,11 +384,11 @@
   </si>
   <si>
     <t xml:space="preserve">	Copyright (c) [YEAR] [Owner Name]
-Permission is hereby granted, free of charge, to any person obtaining a copy  
-of this software and associated documentation files (the "Software"), to deal 
-in the Software without restriction, including without limitation the rights  
-to use, copy, modify, merge, publish, distribute, sublicense, and/or sell     
-copies of the Software, and to permit persons to whom the Software is         
+Permission is hereby granted, free of charge, to any person obtaining a copy   
+of this software and associated documentation files (the "Software"), to deal    
+in the Software without restriction, including without limitation the rights   
+to use, copy, modify, merge, publish, distribute, sublicense, and/or sell   
+copies of the Software, and to permit persons to whom the Software is   
 furnished to do so, subject to the following conditions:                      
 The above copyright notice and this permission notice shall be included       
 in all copies or substantial portions of the Software.                        
@@ -896,7 +896,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/SASPACer/addcnt/template_package.xlsx
+++ b/SASPACer/addcnt/template_package.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mytakeda-my.sharepoint.com/personal/ryou_nakaya_takeda_com/Documents/仲家/SAS/SASPACer/SASPACer/addcnt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="250" documentId="11_F25DC773A252ABDACC104856C95E563E5ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A3940A5-157D-46F5-8325-873979361FF3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E05EC0-E9EC-43EA-ADBC-AFCFB3998AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="863" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="863" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,8 @@
             <charset val="128"/>
           </rPr>
           <t>Note:
-Set blank if no SAS packages are used.</t>
+Set blank if no SAS packages are used.
+Example: "baseplus"</t>
         </r>
       </text>
     </comment>
@@ -111,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1"/>
@@ -185,10 +186,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Create mylib library under work directory.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>location</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -213,18 +210,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>This is a small dataset.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>smalldataset1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>This is a bigger dataset.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>biggerdataset</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -233,34 +222,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>This is mcrOne macro.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>macrone</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>macrtwo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>This is macrTwo macro.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mytest1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mytest2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>This is a test.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>%mcrTwo(m=mcrOne)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -269,34 +234,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>testPackage</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ReqPackages</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>"Baseplus (2.1.0)"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\Users\lazydataset.sas</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\Users\macro2.sas</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\Users\test2.sas</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>data _null_;  length rc0 $ 32767 rc1 rc2 8; lib = """"""""""""""""""""""""""""""""myLib1"""""""""""""""""""""""""""""""";  rc0 = DCREATE(lib, """"""""""""""""""""""""""""""""%sysfunc(pathname(work))/"""""""""""""""""""""""""""""""");  put rc0 = ;  rc1 = LIBNAME(lib, """"""""""""""""""""""""""""""""%sysfunc(pathname(work))/"""""""""""""""""""""""""""""""" !! lib, """"""""""""""""""""""""""""""""BASE"""""""""""""""""""""""""""""""");  rc2 = LIBREF (lib);  if rc2 NE 0 then rc1 = LIBNAME(lib, """"""""""""""""""""""""""""""""%sysfunc(pathname(work))"""""""""""""""""""""""""""""""", """"""""""""""""""""""""""""""""BASE""""""""""""""""""""""""""""""""); run; libname myLib1 LIST;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>value fmtNum low -&lt; 0 = "negative" 0 = "zero" 0 &lt;- high = "positive" other = "missing" ;</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -305,67 +246,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>%macro mcrOne(); %put **Hi! This is macro &amp;sysmacroname.**; data _null_; set myLib1.smallDataset; p = f1(n); p + f2(n); put (n p) (= fmtNum.); run; %mend mcrOne;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>This is a format.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>This is an informat.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F2 is an user-defined function.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mylib</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C:\Users\infnum.sas</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>infnum</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C:\Users\f2.sas</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>This is a small dataset1.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>data myLib.smallDataset; do n = ., -1, 0, 1; m = put(n, fmtNum.); output; end; run;</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C:\Users\smalldataset1.sas</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Create mylib1 library under work directory.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\Users\mylib1.sas</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>This is a bigger dataset1.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>data myLib.biggerDataset; do i = ., -1e6 to 1e6; j = put(i, fmtNum.); k = ranuni(17); output; end; run;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>This is a test2.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -375,11 +268,6 @@
 1. Bartosz Jablonski, "My First SAS Package - a How To", SGF Proceedings, Paper 1079-2021, 
    https://communities.sas.com/t5/SAS-Global-Forum-Proceedings/My-First-SAS-Package-A-How-To/ta-p/726319
    https://communities.sas.com/kntur85557/attachments/kntur85557/proceedings-2021/59/1/Paper_1079-2021.pdf</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F1 is an user-defined function to output +1 value. 
-options cmplib=work.f ; is required prior to f1 is used.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -399,6 +287,125 @@
 LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, 
 OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE 
 SOFTWARE. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Create mylib library under work directory. 
+(No need to write location column if content is written in body column.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Create mylib1 library under work directory.
+(No need to write body column if content is in a file written in location column, SASPACer reads the file.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\temp\addcnt\mylib1.sas</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\temp\addcnt\infnum.sas</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\temp\addcnt\f2.sas</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\temp\addcnt\smalldataset1.sas</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>myPackage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This is a format.
+(No need to write location column if content is written in body column.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This is a small dataset.
+(No need to write location column if content is written in body column.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F1 is an user-defined function to output +1 value. 
+options cmplib=work.f ; is required prior to f1 is used.
+(No need to write location column if content is written in body column.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This is a bigger dataset.
+(No need to write location column if content is written in body column.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This is mcrOne macro.
+(No need to write location column if content is written in body column.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This is a test.
+(No need to write location column if content is written in body column.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This is an informat.
+(No need to write body column if content is in a file written in location column, SASPACer reads the file.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F2 is an user-defined function.
+(No need to write body column if content is in a file written in location column, SASPACer reads the file.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This is a small dataset1.
+(No need to write body column if content is in a file written in location column, SASPACer reads the file.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This is a bigger dataset1.
+(No need to write body column if content is in a file written in location column, SASPACer reads the file.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>data _null_;
+length rc0 $ 32767 rc1 rc2 8; 
+lib = "myLib"; 
+rc0 = DCREATE(lib, "%sysfunc(pathname(work))/"); 
+put rc0 = ; 
+rc1 = LIBNAME(lib, "%sysfunc(pathname(work))/" !! lib, "BASE"); 
+rc2 = LIBREF (lib); 
+if rc2 NE 0 then rc1 = LIBNAME(lib, "%sysfunc(pathname(work))", "BASE");
+run; 
+libname myLib LIST;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\temp\addcnt\biggerdataset1.sas</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mcrone</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mcrtwo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This is mcrTwo macro.
+(No need to write body column if content is in a file written in location column, SASPACer reads the file.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\temp\addcnt\mcrtwo.sas</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>%macro mcrOne(); %put **Hi! This is macro &amp;sysmacroname.**; data _null_; set myLib.smallDataset; p = f1(n); p + f2(n); put (n p) (= fmtNum.); run; %mend mcrOne;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -786,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -809,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -870,18 +877,16 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>41</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:2" ht="198">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -895,7 +900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA4723A-BC3E-47B2-B1DD-0A431AEFC984}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -909,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -924,7 +929,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -936,7 +941,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>16</v>
@@ -945,31 +950,31 @@
         <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="252">
+      <c r="A2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" ht="72">
+      <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="342">
-      <c r="A2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="B3" s="8" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1026,7 +1031,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1038,7 +1043,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>16</v>
@@ -1047,31 +1052,31 @@
         <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="54">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="72">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1129,7 +1134,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1141,7 +1146,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>16</v>
@@ -1150,31 +1155,31 @@
         <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="72">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="108">
       <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" ht="72">
+      <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="B3" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1228,6 +1233,108 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BE0A2C-0CD0-40C2-BB1E-323C67784E39}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="40.9140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="36.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="54">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" ht="72">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428646B3-4EE4-42AB-A9F4-C9FD81F75980}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1244,7 +1351,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>16</v>
@@ -1253,133 +1360,31 @@
         <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="54">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="72">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428646B3-4EE4-42AB-A9F4-C9FD81F75980}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="40.9140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="36.9140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="54">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1434,9 +1439,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2407937D-6862-4C42-A8B5-594F375883D2}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1449,7 +1454,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>16</v>
@@ -1458,31 +1463,31 @@
         <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="90">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="90">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1539,7 +1544,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1551,7 +1556,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>16</v>
@@ -1560,32 +1565,26 @@
         <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="54">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2"/>

--- a/SASPACer/addcnt/template_package.xlsx
+++ b/SASPACer/addcnt/template_package.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mytakeda-my.sharepoint.com/personal/ryou_nakaya_takeda_com/Documents/仲家/SAS/SASPACer/SASPACer/addcnt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E05EC0-E9EC-43EA-ADBC-AFCFB3998AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E8E05EC0-E9EC-43EA-ADBC-AFCFB3998AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D54CB7B-7A9A-459F-AE5A-A6D2DCA50A72}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="863" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4520" yWindow="4360" windowWidth="14370" windowHeight="4910" tabRatio="863" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="03_functions" sheetId="5" r:id="rId5"/>
     <sheet name="04_data" sheetId="6" r:id="rId6"/>
     <sheet name="05_lazydata" sheetId="7" r:id="rId7"/>
-    <sheet name="06_macros" sheetId="8" r:id="rId8"/>
+    <sheet name="06_macro" sheetId="8" r:id="rId8"/>
     <sheet name="07_test" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -1441,7 +1441,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/SASPACer/addcnt/template_package.xlsx
+++ b/SASPACer/addcnt/template_package.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mytakeda-my.sharepoint.com/personal/ryou_nakaya_takeda_com/Documents/仲家/SAS/SASPACer/SASPACer/addcnt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\some\path\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E8E05EC0-E9EC-43EA-ADBC-AFCFB3998AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D54CB7B-7A9A-459F-AE5A-A6D2DCA50A72}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4520" yWindow="4360" windowWidth="14370" windowHeight="4910" tabRatio="863" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4515" yWindow="4365" windowWidth="14370" windowHeight="4905" tabRatio="863" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="06_macro" sheetId="8" r:id="rId8"/>
     <sheet name="07_test" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,12 +32,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Nakaya, Ryou</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{1756B183-74B5-45EF-8910-07ACB929B198}">
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,12 +59,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Nakaya, Ryou</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{0E1B65D1-AA60-4395-8202-46697B916731}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -86,12 +85,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Nakaya, Ryou</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{0A1668C9-953F-48F5-B155-BD4BE8DAD31A}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1"/>
@@ -190,10 +189,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mylib1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>fmtnum</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -206,22 +201,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>smalldataset</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>smalldataset1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>biggerdataset</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>biggerdataset1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mytest1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -246,19 +225,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mylib</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>infnum</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>data myLib.smallDataset; do n = ., -1, 0, 1; m = put(n, fmtNum.); output; end; run;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>data myLib.biggerDataset; do i = ., -1e6 to 1e6; j = put(i, fmtNum.); k = ranuni(17); output; end; run;</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -271,51 +238,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">	Copyright (c) [YEAR] [Owner Name]
-Permission is hereby granted, free of charge, to any person obtaining a copy   
-of this software and associated documentation files (the "Software"), to deal    
-in the Software without restriction, including without limitation the rights   
-to use, copy, modify, merge, publish, distribute, sublicense, and/or sell   
-copies of the Software, and to permit persons to whom the Software is   
-furnished to do so, subject to the following conditions:                      
-The above copyright notice and this permission notice shall be included       
-in all copies or substantial portions of the Software.                        
-THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR    
-IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY,      
-FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE   
-AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER        
-LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, 
-OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE 
-SOFTWARE. </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Create mylib library under work directory. 
-(No need to write location column if content is written in body column.)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Create mylib1 library under work directory.
-(No need to write body column if content is in a file written in location column, SASPACer reads the file.)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\temp\addcnt\mylib1.sas</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\temp\addcnt\infnum.sas</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\temp\addcnt\f2.sas</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\temp\addcnt\smalldataset1.sas</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>myPackage</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -325,105 +247,134 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>This is a small dataset.
-(No need to write location column if content is written in body column.)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F1 is an user-defined function to output +1 value. 
-options cmplib=work.f ; is required prior to f1 is used.
-(No need to write location column if content is written in body column.)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>This is a bigger dataset.
-(No need to write location column if content is written in body column.)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>This is mcrOne macro.
 (No need to write location column if content is written in body column.)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>This is a test.
-(No need to write location column if content is written in body column.)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>This is an informat.
 (No need to write body column if content is in a file written in location column, SASPACer reads the file.)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>F2 is an user-defined function.
+    <t>mcrone</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mcrtwo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This is mcrTwo macro.
 (No need to write body column if content is in a file written in location column, SASPACer reads the file.)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>This is a small dataset1.
+    <t xml:space="preserve">	Copyright (c) [YEAR] [Owner Name]
+Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:
+The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.
+THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE. </t>
+  </si>
+  <si>
+    <t>C:\some\path\mylibb.sas</t>
+  </si>
+  <si>
+    <t>Create mylibB library under work directory.
 (No need to write body column if content is in a file written in location column, SASPACer reads the file.)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>This is a bigger dataset1.
-(No need to write body column if content is in a file written in location column, SASPACer reads the file.)</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Create mylibA library under work directory. 
+(No need to write location column if content is written in body column.)</t>
   </si>
   <si>
     <t>data _null_;
 length rc0 $ 32767 rc1 rc2 8; 
-lib = "myLib"; 
+lib = "myLibA"; 
 rc0 = DCREATE(lib, "%sysfunc(pathname(work))/"); 
 put rc0 = ; 
 rc1 = LIBNAME(lib, "%sysfunc(pathname(work))/" !! lib, "BASE"); 
 rc2 = LIBREF (lib); 
 if rc2 NE 0 then rc1 = LIBNAME(lib, "%sysfunc(pathname(work))", "BASE");
 run; 
-libname myLib LIST;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\temp\addcnt\biggerdataset1.sas</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mcrone</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mcrtwo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>This is mcrTwo macro.
+libname myLibA LIST;</t>
+  </si>
+  <si>
+    <t>C:\some\path\infnum.sas</t>
+  </si>
+  <si>
+    <t>C:\some\path\f2.sas</t>
+  </si>
+  <si>
+    <t>F1(n) is an user-defined function to output `n+1` value. 
+The options cmplib= is updated automatically when the package is loaded.
+(No need to write location column if content is written in body column.)</t>
+  </si>
+  <si>
+    <t>F2(n) is an user-defined function to output `n+2` value.
 (No need to write body column if content is in a file written in location column, SASPACer reads the file.)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\temp\addcnt\mcrtwo.sas</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>%macro mcrOne(); %put **Hi! This is macro &amp;sysmacroname.**; data _null_; set myLib.smallDataset; p = f1(n); p + f2(n); put (n p) (= fmtNum.); run; %mend mcrOne;</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This is a `smallDatasetA` data set.
+(No need to write location column if content is written in body column.)</t>
+  </si>
+  <si>
+    <t>This is a `smallDatasetB` data set
+(No need to write body column if content is in a file written in location column, SASPACer reads the file.)</t>
+  </si>
+  <si>
+    <t>C:\some\path\smalldatasetb.sas</t>
+  </si>
+  <si>
+    <t>C:\some\path\mcrtwo.sas</t>
+  </si>
+  <si>
+    <t>This is a simple test.
+(No need to write location column if content is written in body column.)</t>
+  </si>
+  <si>
+    <t>data myLibA.smallDatasetA; do n = ., -1, 0, 1; m = put(n, fmtNum.); output; end; run;</t>
+  </si>
+  <si>
+    <t>data myLibB.biggerDataset; do i = ., -1e6 to 1e6; j = put(i, fmtNum.); k = ranuni(17); output; end; run;</t>
+  </si>
+  <si>
+    <t>This is a lazy data set `myLibB.biggerDataset`.
+(No need to write location column if content is written in body column.)</t>
+  </si>
+  <si>
+    <t>mylibb.biggerdataset</t>
+  </si>
+  <si>
+    <t>myliba.smalldataseta</t>
+  </si>
+  <si>
+    <t>mylibb.smalldatasetb</t>
+  </si>
+  <si>
+    <t>myliba</t>
+  </si>
+  <si>
+    <t>mylibb</t>
+  </si>
+  <si>
+    <t>%macro mcrOne(); %put **Hi! This is macro &amp;sysmacroname.**; data _null_; set myLibA.smallDatasetA; p = f1(n); p + f2(n); put (n p) (= fmtNum.); run; %mend mcrOne;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -432,7 +383,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -513,7 +464,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -790,17 +741,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.08203125" customWidth="1"/>
-    <col min="2" max="2" width="56.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -816,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -877,16 +828,16 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:2" ht="198">
+    <row r="11" spans="1:2" ht="165">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -897,24 +848,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA4723A-BC3E-47B2-B1DD-0A431AEFC984}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="115" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="342">
+    <row r="1" spans="1:2" ht="210">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -924,24 +875,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC79BED-A30A-4A30-B2B7-509A2725239B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.08203125" customWidth="1"/>
-    <col min="2" max="2" width="40.9140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="36.9140625" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>16</v>
@@ -953,28 +904,28 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="252">
+    <row r="2" spans="1:4" ht="210">
       <c r="A2" s="7" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" ht="60">
+      <c r="A3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:4" ht="72">
-      <c r="A3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1026,24 +977,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CBB7B59-1876-40FD-8459-DE7F6FCDDEDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.08203125" customWidth="1"/>
-    <col min="2" max="2" width="40.9140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="36.9140625" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>16</v>
@@ -1055,24 +1006,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="54">
+    <row r="2" spans="1:4" ht="45">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" ht="72">
+    <row r="3" spans="1:4" ht="60">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
@@ -1129,7 +1080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A4F916-DBCC-4C7B-BCA6-B5AE56015120}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1137,16 +1088,16 @@
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.08203125" customWidth="1"/>
-    <col min="2" max="2" width="40.9140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="36.9140625" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>16</v>
@@ -1158,24 +1109,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="108">
+    <row r="2" spans="1:4" ht="90">
       <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" ht="75">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="72">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="B3" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
@@ -1232,24 +1183,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BE0A2C-0CD0-40C2-BB1E-323C67784E39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="40.9140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="36.9140625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>16</v>
@@ -1261,28 +1212,28 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="54">
+    <row r="2" spans="1:4" ht="45">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" ht="60">
+      <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="72">
-      <c r="A3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1334,24 +1285,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428646B3-4EE4-42AB-A9F4-C9FD81F75980}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="40.9140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="36.9140625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>16</v>
@@ -1363,29 +1314,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="54">
+    <row r="2" spans="1:4" ht="60">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" ht="72">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>55</v>
-      </c>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2"/>
@@ -1436,25 +1381,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2407937D-6862-4C42-A8B5-594F375883D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.08203125" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.9140625" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>16</v>
@@ -1466,28 +1411,28 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="90">
+    <row r="2" spans="1:4" ht="75">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" ht="90">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1539,24 +1484,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F138A73F-DE48-4877-AA04-F53F95AC3500}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="40.9140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="36.9140625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>16</v>
@@ -1568,15 +1513,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="54">
+    <row r="2" spans="1:4" ht="45">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D2" s="6"/>
     </row>

--- a/SASPACer/addcnt/template_package.xlsx
+++ b/SASPACer/addcnt/template_package.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\some\path\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mytakeda-my.sharepoint.com/personal/ryou_nakaya_takeda_com/Documents/仲家/SAS/SASPACer/SASPACer/addcnt/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_863F6AA002F6A0AED88E1CA3369039B44B93B311" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6ECFD1CE-9FE8-493D-8C78-BDA73A65E97F}"/>
   <bookViews>
-    <workbookView xWindow="4515" yWindow="4365" windowWidth="14370" windowHeight="4905" tabRatio="863" activeTab="7"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="863" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="1" r:id="rId1"/>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nakaya, Ryou</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -59,12 +60,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nakaya, Ryou</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -85,12 +86,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nakaya, Ryou</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -247,11 +248,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>This is mcrOne macro.
-(No need to write location column if content is written in body column.)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>This is an informat.
 (No need to write body column if content is in a file written in location column, SASPACer reads the file.)</t>
     <phoneticPr fontId="1"/>
@@ -262,11 +258,6 @@
   </si>
   <si>
     <t>mcrtwo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>This is mcrTwo macro.
-(No need to write body column if content is in a file written in location column, SASPACer reads the file.)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -359,22 +350,72 @@
   <si>
     <t>%macro mcrOne(); %put **Hi! This is macro &amp;sysmacroname.**; data _null_; set myLibA.smallDatasetA; p = f1(n); p + f2(n); put (n p) (= fmtNum.); run; %mend mcrOne;</t>
   </si>
+  <si>
+    <t>### Macro:
+    %macrone  
+### Purpose:
+    Generates some result using mylibA and functions f1 and f2 as well as fmtNum.  
+### Parameters:  
+ - `parameter1` (required)	: Description of parameter1
+ - `parameter2` (option, default=xxx)		: Description of parameter2
+### Sample code:
+~~~sas
+%macrOne(  
+  parameter1 = xxxx,  
+  parameter2 = yyyy  
+)
+~~~
+### Note:
+- Description of some notes here
+### URL:
+https://github.com/you/your_repo
+---
+Author: Your Name
+Latest udpate Date: 2025-MM-DD
+---</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>### Macro:
+    %macrTwo 
+### Purpose:
+    Generates some result using mylibA and functions f1 and f2 as well as fmtNum.  
+### Parameters:  
+ - `parameter1` (required)	: Description of parameter1
+ - `parameter2` (option, default=xxx)		: Description of parameter2
+### Sample code:
+~~~sas
+%macrOne(  
+  parameter1 = xxxx,  
+  parameter2 = yyyy  
+)
+~~~
+### Note:
+- Description of some notes here
+### URL:
+https://github.com/you/your_repo
+---
+Author: Your Name
+Latest udpate Date: 2025-MM-DD
+---</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -383,7 +424,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -464,7 +505,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -741,17 +782,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="56.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="56.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -832,7 +873,7 @@
       </c>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:2" ht="165">
+    <row r="11" spans="1:2" ht="198">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -848,24 +889,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="115" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="210">
+    <row r="1" spans="1:2" ht="252">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -875,7 +916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -883,11 +924,11 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -904,28 +945,28 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="210">
+    <row r="2" spans="1:4" ht="252">
       <c r="A2" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:4" ht="60">
+    <row r="3" spans="1:4" ht="72">
       <c r="A3" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -977,7 +1018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -985,11 +1026,11 @@
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1006,7 +1047,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45">
+    <row r="2" spans="1:4" ht="54">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1018,16 +1059,16 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" ht="60">
+    <row r="3" spans="1:4" ht="72">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1080,7 +1121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1088,11 +1129,11 @@
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1109,28 +1150,28 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="90">
+    <row r="2" spans="1:4" ht="108">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" ht="75">
+    <row r="3" spans="1:4" ht="90">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1183,7 +1224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1191,11 +1232,11 @@
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1212,28 +1253,28 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45">
+    <row r="2" spans="1:4" ht="54">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" ht="60">
+    <row r="3" spans="1:4" ht="72">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1285,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1293,11 +1334,11 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1314,15 +1355,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60">
+    <row r="2" spans="1:4" ht="54">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="6"/>
     </row>
@@ -1381,20 +1422,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="68.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.83203125" customWidth="1"/>
+    <col min="4" max="4" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1411,28 +1452,28 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75">
+    <row r="2" spans="1:4" ht="409.5">
       <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" ht="409.5">
+      <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="90">
-      <c r="A3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1484,7 +1525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1492,11 +1533,11 @@
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1513,12 +1554,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45">
+    <row r="2" spans="1:4" ht="54">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>23</v>
